--- a/resultados/resultados_221123.xlsx
+++ b/resultados/resultados_221123.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufranca/Documents/Dropbox/other_projects/FIA-Ajepi/Mundial2022/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F531CEF-0DDE-B447-818E-C45B318DC1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D0D1116-A3C1-0D47-8B11-FB408FDDAF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6840" yWindow="500" windowWidth="21960" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:E86"/>
+      <selection activeCell="B71" sqref="B71:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2231,18 +2231,24 @@
         <v>19</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
         <f>D53+E70</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E70">
         <f>3*F70+G70</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2250,18 +2256,24 @@
         <v>5</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
         <f t="shared" ref="D71:D86" si="6">D54+E71</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E71">
         <f t="shared" ref="E71:E86" si="7">3*F71+G71</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2269,18 +2281,24 @@
         <v>22</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E72">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2288,18 +2306,24 @@
         <v>23</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E73">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2307,18 +2331,24 @@
         <v>6</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E74">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2326,18 +2356,24 @@
         <v>20</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2345,18 +2381,24 @@
         <v>21</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E76">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2364,18 +2406,24 @@
         <v>7</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E77">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2383,18 +2431,24 @@
         <v>8</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E78">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2402,18 +2456,24 @@
         <v>9</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E79">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2421,132 +2481,174 @@
         <v>18</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E80">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>10</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E81">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>11</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E82">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>12</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E83">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>13</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E84">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>14</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E85">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>15</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E86">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.2">
